--- a/ruby.xlsx
+++ b/ruby.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/esteban/Desktop/SELB/jgapi/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{672C258E-3A26-E84C-82D8-897A515D30A3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BA97983-9230-7244-A6BA-F678DA2548D2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1120" yWindow="1660" windowWidth="25700" windowHeight="15640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="37">
   <si>
     <t>positivo</t>
   </si>
@@ -527,14 +527,19 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="15.1640625" customWidth="1"/>
+    <col min="2" max="2" width="17.1640625" customWidth="1"/>
     <col min="3" max="3" width="12.6640625" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
     <col min="5" max="5" width="11.83203125" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" customWidth="1"/>
+    <col min="8" max="8" width="12.83203125" customWidth="1"/>
+    <col min="9" max="9" width="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
@@ -577,9 +582,21 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" t="s">
         <v>10</v>
       </c>
     </row>
@@ -587,6 +604,15 @@
       <c r="A3">
         <v>5</v>
       </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
@@ -594,6 +620,24 @@
       </c>
       <c r="B4" t="s">
         <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
